--- a/data/stat probs/jalen suggs stat probs - condition.xlsx
+++ b/data/stat probs/jalen suggs stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -589,28 +589,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1873,22 +1873,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2067,28 +2067,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3607,28 +3607,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -4537,28 +4537,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -5399,1354 +5399,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="n">
-        <v>80</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>80</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>80</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>60</v>
-      </c>
-      <c r="D12" t="n">
-        <v>40</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60</v>
-      </c>
-      <c r="D13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>60</v>
-      </c>
-      <c r="D14" t="n">
-        <v>40</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>60</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>60</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>60</v>
-      </c>
-      <c r="D17" t="n">
-        <v>40</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>40</v>
-      </c>
-      <c r="D18" t="n">
-        <v>60</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="n">
-        <v>80</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>80</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>80</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>60</v>
-      </c>
-      <c r="D12" t="n">
-        <v>40</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60</v>
-      </c>
-      <c r="D13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>60</v>
-      </c>
-      <c r="D14" t="n">
-        <v>40</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>60</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>60</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>60</v>
-      </c>
-      <c r="D17" t="n">
-        <v>40</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>40</v>
-      </c>
-      <c r="D18" t="n">
-        <v>60</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6815,28 +5467,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7356,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7425,28 +6077,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7966,7 +6618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8035,28 +6687,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -8896,7 +7548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8965,28 +7617,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -9826,7 +8478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9895,28 +8547,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -10684,6 +9336,1674 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H2" t="n">
+        <v>83</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>83</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>83</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>67</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>83</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>83</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17</v>
+      </c>
+      <c r="H10" t="n">
+        <v>83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>67</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>83</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>83</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="n">
+        <v>83</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>83</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>83</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" t="n">
+        <v>83</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" t="n">
+        <v>83</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>83</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" t="n">
+        <v>83</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" t="n">
+        <v>83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>83</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17</v>
+      </c>
+      <c r="D26" t="n">
+        <v>83</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10761,28 +11081,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -11628,7 +11948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11691,28 +12011,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -11729,22 +12049,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -11761,16 +12081,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -11787,16 +12107,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>50</v>
@@ -11805,10 +12125,10 @@
         <v>50</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -11819,10 +12139,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>50</v>
@@ -11837,10 +12157,10 @@
         <v>50</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -11851,28 +12171,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -11883,10 +12203,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -11895,10 +12215,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -11915,10 +12235,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -11927,10 +12247,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -11947,10 +12267,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -11959,10 +12279,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -12075,10 +12395,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -12107,10 +12427,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -12139,10 +12459,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -12171,10 +12491,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -12203,10 +12523,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12235,10 +12555,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -12267,10 +12587,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -12299,10 +12619,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12331,10 +12651,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -12363,10 +12683,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -12395,10 +12715,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -12416,70 +12736,6 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>17</v>
-      </c>
-      <c r="D25" t="n">
-        <v>83</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>17</v>
-      </c>
-      <c r="D26" t="n">
-        <v>83</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -12557,28 +12813,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -12607,10 +12863,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -12627,16 +12883,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -12659,22 +12915,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -12685,28 +12941,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -12717,28 +12973,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -12749,10 +13005,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -12761,10 +13017,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -12781,10 +13037,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -12793,10 +13049,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -12813,10 +13069,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -12825,10 +13081,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -13037,10 +13293,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -13069,10 +13325,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -13101,10 +13357,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -13133,10 +13389,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -13165,10 +13421,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13197,10 +13453,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -13229,10 +13485,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -13261,10 +13517,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -13359,28 +13615,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -13409,10 +13665,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -13429,16 +13685,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -13461,22 +13717,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -13487,28 +13743,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -13519,28 +13775,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -13551,10 +13807,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -13563,10 +13819,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -13583,10 +13839,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -13595,10 +13851,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -13615,10 +13871,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -13627,10 +13883,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -13839,10 +14095,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -13871,10 +14127,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -13903,10 +14159,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -13935,10 +14191,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -13967,10 +14223,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13999,10 +14255,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -14031,10 +14287,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -14063,10 +14319,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -14098,7 +14354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14161,28 +14417,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -14211,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -14231,22 +14487,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -14257,28 +14513,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -14289,28 +14545,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -14321,28 +14577,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -14353,10 +14609,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -14365,10 +14621,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -14397,10 +14653,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -14429,10 +14685,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -14449,10 +14705,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -14481,10 +14737,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -14513,10 +14769,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -14545,10 +14801,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -14577,10 +14833,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -14609,10 +14865,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -14641,10 +14897,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -14673,10 +14929,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -14705,10 +14961,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -14737,10 +14993,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -14769,10 +15025,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -14801,10 +15057,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -14833,10 +15089,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -14865,10 +15121,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -14886,6 +15142,70 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>88</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14900,7 +15220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14963,28 +15283,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15013,10 +15333,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -15033,22 +15353,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -15059,28 +15379,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -15091,28 +15411,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -15123,28 +15443,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -15155,10 +15475,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -15167,10 +15487,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -15199,10 +15519,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -15231,10 +15551,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -15251,10 +15571,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -15283,10 +15603,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -15315,10 +15635,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -15347,10 +15667,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -15379,10 +15699,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -15411,10 +15731,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -15443,10 +15763,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -15475,10 +15795,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -15507,10 +15827,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -15539,10 +15859,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -15571,10 +15891,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -15603,10 +15923,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -15635,10 +15955,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -15667,10 +15987,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -15688,6 +16008,70 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>88</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -15765,28 +16149,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -16535,28 +16919,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -17305,28 +17689,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17659,28 +18043,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18013,28 +18397,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -18495,28 +18879,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -19425,28 +19809,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -19907,22 +20291,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20101,22 +20485,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20295,28 +20679,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -20905,28 +21289,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21515,28 +21899,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22125,28 +22509,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22735,28 +23119,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23345,28 +23729,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23955,22 +24339,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24213,28 +24597,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -25143,22 +25527,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25401,28 +25785,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25883,28 +26267,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26749,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27007,28 +27391,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27649,28 +28033,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27939,28 +28323,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28229,28 +28613,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28807,28 +29191,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29385,28 +29769,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29963,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -30829,28 +31213,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31407,28 +31791,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31793,28 +32177,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32179,28 +32563,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32725,28 +33109,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33271,22 +33655,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33465,22 +33849,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33659,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34525,28 +34909,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35391,28 +35775,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36257,28 +36641,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -37123,28 +37507,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37989,28 +38373,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -38727,28 +39111,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -39465,28 +39849,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -39915,28 +40299,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -40365,22 +40749,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40559,22 +40943,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40753,22 +41137,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40979,22 +41363,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41205,28 +41589,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42039,28 +42423,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -42649,28 +43033,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43483,28 +43867,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43965,28 +44349,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44447,28 +44831,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -44897,28 +45281,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -45347,10 +45731,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -45359,10 +45743,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45541,10 +45925,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -45553,10 +45937,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45735,28 +46119,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46025,28 +46409,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46315,10 +46699,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -46327,10 +46711,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -46637,28 +47021,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -47247,10 +47631,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -47259,10 +47643,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -47569,28 +47953,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -48115,28 +48499,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -48661,28 +49045,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -49591,28 +49975,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -50521,10 +50905,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -50683,10 +51067,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -50851,16 +51235,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51077,16 +51461,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51297,28 +51681,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -51779,28 +52163,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52133,28 +52517,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52615,22 +52999,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -53065,22 +53449,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -53515,28 +53899,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -53901,28 +54285,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54287,28 +54671,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54673,28 +55057,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -55059,22 +55443,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55253,22 +55637,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55447,22 +55831,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
